--- a/documents/stories/new_product backlog .xlsx
+++ b/documents/stories/new_product backlog .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25596" windowHeight="10860"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,14 +49,13 @@
     <t>User sign up</t>
   </si>
   <si>
-    <t xml:space="preserve">As a user  I want I can sign up the system with my email together with some optional body characteristic. So that   coach or the system can better custom some classes for me.
-</t>
+    <t>As a user  I want I can sign up the system with my email together with some optional body characteristic. So that   coach or the system can better custom some classes for me.</t>
   </si>
   <si>
     <t>very high</t>
   </si>
   <si>
-    <t>Make sure the telephone number/ email is not used by other people
+    <t>Make sure the username is not used by other people
 Receive the user’s phone/email, name,password, gender(o), weight(o), height(o), age(o)
 Generate user entity with above information, store in the memory.</t>
   </si>
@@ -67,15 +66,12 @@
     <t>User log in</t>
   </si>
   <si>
-    <t>As a         user
-  I want I can sign in just with my phone/email and password
+    <t>As a user, I want I can sign in just with my username and password
   So that   i can save more time</t>
   </si>
   <si>
-    <t>Use email/phone as ID of the user
-Use password to make sure if the user have the authority to login
-If password wrong, show the message
-If user entity not exist, show the message.</t>
+    <t>Use username as identification of user
+Use password to make sure if the user have the authority to login</t>
   </si>
   <si>
     <t>A01a</t>
@@ -766,10 +762,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -813,16 +809,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,32 +824,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,11 +845,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -892,28 +863,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -921,7 +870,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,11 +902,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -958,19 +954,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,19 +1074,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,31 +1116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,96 +1129,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,17 +1157,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,7 +1170,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1200,35 +1190,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,17 +1216,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,7 +1263,7 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1276,151 +1272,167 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="36" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="36" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1771,17 +1783,18 @@
   <sheetPr/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.13888888888889" customWidth="1"/>
     <col min="2" max="2" width="35.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="5" max="5" width="28.4259259259259" customWidth="1"/>
-    <col min="6" max="6" width="19.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="53.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="11.2407407407407" customWidth="1"/>
+    <col min="5" max="5" width="6.26851851851852" customWidth="1"/>
+    <col min="6" max="6" width="53.9814814814815" customWidth="1"/>
     <col min="7" max="7" width="17.1388888888889" customWidth="1"/>
     <col min="8" max="8" width="24.8518518518519" customWidth="1"/>
     <col min="9" max="9" width="26.287037037037" customWidth="1"/>
@@ -1816,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="201.6" spans="1:6">
+    <row r="2" ht="123" customHeight="1" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1826,958 +1839,1082 @@
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" ht="75" customHeight="1" spans="1:6">
-      <c r="A3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" ht="79" customHeight="1" spans="1:9">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" ht="109.2" spans="1:6">
-      <c r="A4" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" ht="62.4" spans="1:9">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" ht="86.4" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" ht="72" spans="1:9">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" ht="86.4" spans="1:6">
-      <c r="A6" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" ht="72" spans="1:9">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" ht="129.6" spans="1:7">
-      <c r="A7" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" ht="100.8" spans="1:9">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" ht="100.8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" ht="72" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" ht="172.8" spans="1:6">
-      <c r="A9" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" ht="129.6" spans="1:9">
+      <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" ht="129.6" spans="1:6">
-      <c r="A10" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" ht="129.6" spans="1:9">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" ht="273.6" spans="1:6">
-      <c r="A11" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" ht="273.6" spans="1:9">
+      <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" ht="187.2" spans="1:6">
-      <c r="A12" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" ht="187.2" spans="1:9">
+      <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" ht="144" spans="1:6">
-      <c r="A13" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" ht="144" spans="1:9">
+      <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" ht="216" spans="1:6">
-      <c r="A14" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" ht="216" spans="1:9">
+      <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" ht="216" spans="1:6">
-      <c r="A15" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" ht="216" spans="1:9">
+      <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>2</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" ht="158.4" spans="1:6">
-      <c r="A16" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" ht="158.4" spans="1:9">
+      <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" ht="230.4" spans="1:6">
-      <c r="A17" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" ht="230.4" spans="1:9">
+      <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" ht="100.8" spans="1:6">
-      <c r="A18" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" ht="100.8" spans="1:9">
+      <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" ht="201.6" spans="1:6">
-      <c r="A19" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" ht="201.6" spans="1:9">
+      <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>3</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" ht="172.8" spans="1:6">
-      <c r="A20" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" ht="172.8" spans="1:9">
+      <c r="A20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>3</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" ht="244.8" spans="1:6">
-      <c r="A21" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" ht="244.8" spans="1:9">
+      <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" ht="187.2" spans="1:6">
-      <c r="A22" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" ht="187.2" spans="1:9">
+      <c r="A22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" ht="72" spans="1:9">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="7">
         <v>3</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" ht="86.4" spans="1:9">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>3</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" ht="57.6" spans="1:9">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="7">
         <v>3</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" ht="57.6" spans="1:9">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="7">
         <v>3</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" ht="129.6" spans="1:6">
-      <c r="A27" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" ht="129.6" spans="1:9">
+      <c r="A27" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>2</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" ht="144" spans="1:6">
-      <c r="A28" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" ht="144" spans="1:9">
+      <c r="A28" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>4</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" ht="100.8" spans="1:6">
-      <c r="A29" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" ht="100.8" spans="1:9">
+      <c r="A29" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>4</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="30" ht="115.2" spans="1:6">
-      <c r="A30" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" ht="115.2" spans="1:9">
+      <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" ht="129.6" spans="1:6">
-      <c r="A31" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" ht="129.6" spans="1:9">
+      <c r="A31" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>3</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" ht="115.2" spans="1:6">
-      <c r="A32" t="s">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" ht="115.2" spans="1:9">
+      <c r="A32" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <v>3</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="33" ht="172.8" spans="1:6">
-      <c r="A33" t="s">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" ht="172.8" spans="1:9">
+      <c r="A33" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <v>2</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" ht="129.6" spans="1:6">
-      <c r="A34" t="s">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" ht="129.6" spans="1:9">
+      <c r="A34" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="5">
         <v>3</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="35" ht="129.6" spans="1:6">
-      <c r="A35" t="s">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" ht="129.6" spans="1:9">
+      <c r="A35" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="5">
         <v>3</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="36" ht="187.2" spans="1:6">
-      <c r="A36" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" ht="187.2" spans="1:9">
+      <c r="A36" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="5">
         <v>3</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="37" ht="109.2" spans="1:6">
-      <c r="A37" t="s">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" ht="109.2" spans="1:9">
+      <c r="A37" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <v>4</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="38" ht="72" spans="1:6">
-      <c r="A38" t="s">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" ht="72" spans="1:9">
+      <c r="A38" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>158</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="5">
         <v>5</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="39" ht="115.2" spans="1:6">
-      <c r="A39" t="s">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" ht="115.2" spans="1:9">
+      <c r="A39" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <v>4</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="40" ht="115.2" spans="1:6">
-      <c r="A40" t="s">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" ht="115.2" spans="1:9">
+      <c r="A40" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>166</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="5">
         <v>4</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="5" t="s">
         <v>168</v>
       </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" ht="115.2" spans="1:11">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="7">
         <v>4</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
     </row>
     <row r="42" ht="57.6" spans="1:11">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="7">
         <v>4</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
     </row>
     <row r="43" ht="100.8" spans="1:11">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>178</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="5">
         <v>5</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
     </row>
     <row r="44" ht="144" spans="1:11">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>183</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="5">
         <v>5</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
     </row>
     <row r="45" ht="129.6" spans="1:11">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="5">
         <v>5</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
     </row>
     <row r="46" ht="129.6" spans="1:11">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>191</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="5">
         <v>5</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
     </row>
     <row r="47" ht="129.6" spans="1:11">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>195</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="5">
         <v>5</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" ht="100.8" spans="3:6">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" ht="100.8" spans="1:9">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="4" t="s">
         <v>198</v>
       </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:I48">
